--- a/output/ScriptResults/Database_Thresholds_20240123.xlsx
+++ b/output/ScriptResults/Database_Thresholds_20240123.xlsx
@@ -11,7 +11,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Thresholds in Database'!$A$3:$Q$92</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,364 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+  <si>
+    <t>ThresholdID</t>
+  </si>
+  <si>
+    <t>ParameterID</t>
+  </si>
+  <si>
+    <t>Habitat</t>
+  </si>
+  <si>
+    <t>IndicatorID</t>
+  </si>
+  <si>
+    <t>IndicatorName</t>
+  </si>
+  <si>
+    <t>CombinedTable</t>
+  </si>
+  <si>
+    <t>ParameterName</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>LowThreshold</t>
+  </si>
+  <si>
+    <t>HighThreshold</t>
+  </si>
+  <si>
+    <t>QuadSize_m2</t>
+  </si>
+  <si>
+    <t>ExpectedValues</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>LowQuantile</t>
+  </si>
+  <si>
+    <t>HighQuantile</t>
+  </si>
+  <si>
+    <t>Calculated</t>
+  </si>
+  <si>
+    <t>isSpeciesSpecific</t>
+  </si>
+  <si>
+    <t>Water Column</t>
+  </si>
+  <si>
+    <t>Water Quality</t>
+  </si>
+  <si>
+    <t>Continuous WQ</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>Discrete WQ</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>1 ppt = 1 PSU</t>
+  </si>
+  <si>
+    <t>Water Temperature</t>
+  </si>
+  <si>
+    <t>Degrees C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen Saturation</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Specific Conductivity</t>
+  </si>
+  <si>
+    <t>mS/cm</t>
+  </si>
+  <si>
+    <t>1 mS/cm = 1,000 µmhos/cm</t>
+  </si>
+  <si>
+    <t>Water Clarity</t>
+  </si>
+  <si>
+    <t>Turbidity</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>Total Suspended Solids, TSS</t>
+  </si>
+  <si>
+    <t>Chlorophyll a uncorrected for pheophytin</t>
+  </si>
+  <si>
+    <t>ug/L</t>
+  </si>
+  <si>
+    <t>Chlorophyll a corrected for pheophytin</t>
+  </si>
+  <si>
+    <t>Secchi Depth</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>VOB, 999, &gt;B</t>
+  </si>
+  <si>
+    <t>VOB, 999, &gt;B = "visible on bottom"</t>
+  </si>
+  <si>
+    <t>Light Extinction Coefficient</t>
+  </si>
+  <si>
+    <t>m^-1</t>
+  </si>
+  <si>
+    <t>Colored dissolved organic matter, CDOM</t>
+  </si>
+  <si>
+    <t>PCU</t>
+  </si>
+  <si>
+    <t>Fluorescent dissolved organic matter, FDOM</t>
+  </si>
+  <si>
+    <t>QSE</t>
+  </si>
+  <si>
+    <t>Nutrients</t>
+  </si>
+  <si>
+    <t>Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Total Kjeldahl Nitrogen TKN</t>
+  </si>
+  <si>
+    <t>NO2+3 Filtered</t>
+  </si>
+  <si>
+    <t>NH4 Filtered</t>
+  </si>
+  <si>
+    <t>Total Phosphorus</t>
+  </si>
+  <si>
+    <t>PO4 Filtered</t>
+  </si>
+  <si>
+    <t>Submerged Aquatic Vegetation</t>
+  </si>
+  <si>
+    <t>Percent Cover</t>
+  </si>
+  <si>
+    <t>SAV</t>
+  </si>
+  <si>
+    <t>Braun Blanquet Score</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>0,0.1,0.5,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>Modified Braun Blanquet Score</t>
+  </si>
+  <si>
+    <t>n = 0.1; t = 0.5</t>
+  </si>
+  <si>
+    <t>0 to 100 (inclusive)</t>
+  </si>
+  <si>
+    <t>Acreage</t>
+  </si>
+  <si>
+    <t>Hectares</t>
+  </si>
+  <si>
+    <t>ha</t>
+  </si>
+  <si>
+    <t>Oyster/Oyster Reef</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Oyster</t>
+  </si>
+  <si>
+    <t>#/m2</t>
+  </si>
+  <si>
+    <t>Percent Live</t>
+  </si>
+  <si>
+    <t>Size Class</t>
+  </si>
+  <si>
+    <t>Shell Height</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>Coastal Wetlands</t>
+  </si>
+  <si>
+    <t>Species Compositon</t>
+  </si>
+  <si>
+    <t>CW</t>
+  </si>
+  <si>
+    <t>Stem Density</t>
+  </si>
+  <si>
+    <t>Nekton</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Presence/Absence</t>
+  </si>
+  <si>
+    <t>Y/N</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>0 = FALSE = N; 1 = TRUE = Y</t>
+  </si>
+  <si>
+    <t>Number of Oysters Counted - Total</t>
+  </si>
+  <si>
+    <t>0 or positive integers</t>
+  </si>
+  <si>
+    <t>Number of Oysters Counted - Live</t>
+  </si>
+  <si>
+    <t>Number of Oysters Counted - Dead</t>
+  </si>
+  <si>
+    <t>Coral/Coral Reef</t>
+  </si>
+  <si>
+    <t>Coral</t>
+  </si>
+  <si>
+    <t>Community Composition</t>
+  </si>
+  <si>
+    <t>Grazers and Reef Dependent Species</t>
+  </si>
+  <si>
+    <t>Total/Canopy Percent Cover</t>
+  </si>
+  <si>
+    <t>Reef Height</t>
+  </si>
+  <si>
+    <t>Shoot Count</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Percent Live Tissue</t>
+  </si>
+  <si>
+    <t>Colony Height</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Colony Length</t>
+  </si>
+  <si>
+    <t>Colony Width</t>
+  </si>
+  <si>
+    <t>Colony Diameter</t>
+  </si>
+  <si>
+    <t>Fork Length</t>
+  </si>
+  <si>
+    <t>Snout to Anus</t>
+  </si>
+  <si>
+    <t>Standard Length</t>
+  </si>
+  <si>
+    <t>Total Length</t>
+  </si>
+  <si>
+    <t>Width</t>
+  </si>
+  <si>
+    <t>Percent Occurrence</t>
+  </si>
+  <si>
+    <t>0 to 100 (inclusive); values should match grid #/100 intervals</t>
+  </si>
+  <si>
+    <t>values should match grid #/100 intervals</t>
+  </si>
+  <si>
+    <t>Ammonia- Un-ionized (NH3)</t>
+  </si>
+  <si>
+    <t>Nitrate (N)</t>
+  </si>
+  <si>
+    <t>Nitrite (N)</t>
+  </si>
+  <si>
+    <t>Nitrogen, organic</t>
+  </si>
   <si>
     <t>Just a database ID. Retaining this in future correspondence will allow for the most efficient update, based on this single column.</t>
   </si>
@@ -74,388 +431,40 @@
     <t>Are the values applicable to specific species?</t>
   </si>
   <si>
-    <t>ThresholdID</t>
-  </si>
-  <si>
-    <t>ParameterID</t>
-  </si>
-  <si>
-    <t>Habitat</t>
-  </si>
-  <si>
-    <t>IndicatorID</t>
-  </si>
-  <si>
-    <t>IndicatorName</t>
-  </si>
-  <si>
-    <t>CombinedTable</t>
-  </si>
-  <si>
-    <t>ParameterName</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>LowThreshold</t>
-  </si>
-  <si>
-    <t>HighThreshold</t>
-  </si>
-  <si>
-    <t>QuadSize_m2</t>
-  </si>
-  <si>
-    <t>ExpectedValues</t>
-  </si>
-  <si>
-    <t>Conversions</t>
-  </si>
-  <si>
-    <t>LowQuantile</t>
-  </si>
-  <si>
-    <t>HighQuantile</t>
-  </si>
-  <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <t>isSpeciesSpecific</t>
-  </si>
-  <si>
-    <t>Coastal Wetlands</t>
-  </si>
-  <si>
-    <t>Acreage</t>
-  </si>
-  <si>
-    <t>Hectares</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>Species Compositon</t>
-  </si>
-  <si>
-    <t>CW</t>
-  </si>
-  <si>
-    <t>Percent Cover</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>0 to 100 (inclusive)</t>
-  </si>
-  <si>
-    <t>Stem Density</t>
-  </si>
-  <si>
-    <t>#/m2</t>
-  </si>
-  <si>
-    <t>Total/Canopy Percent Cover</t>
-  </si>
-  <si>
-    <t>Coral/Coral Reef</t>
-  </si>
-  <si>
-    <t>Community Composition</t>
-  </si>
-  <si>
-    <t>Coral</t>
+    <t>Calculated Total Nitrogen</t>
+  </si>
+  <si>
+    <t>Applies to "Total SAV" and "Total Seagrass" Common Identifiers.</t>
   </si>
   <si>
     <t>Colony Density</t>
   </si>
   <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Presence/Absence</t>
-  </si>
-  <si>
-    <t>Y/N</t>
-  </si>
-  <si>
-    <t>Grazers and Reef Dependent Species</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>0 = FALSE = N; 1 = TRUE = Y</t>
-  </si>
-  <si>
-    <t>Standard Length</t>
-  </si>
-  <si>
-    <t>cm</t>
-  </si>
-  <si>
-    <t>Colony Diameter</t>
-  </si>
-  <si>
-    <t>Colony Height</t>
-  </si>
-  <si>
-    <t>Colony Length</t>
-  </si>
-  <si>
-    <t>Colony Width</t>
-  </si>
-  <si>
-    <t>Percent Live Tissue</t>
-  </si>
-  <si>
-    <t>Oyster/Oyster Reef</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Oyster</t>
-  </si>
-  <si>
-    <t>Number of Oysters Counted - Dead</t>
-  </si>
-  <si>
-    <t>0 or positive integers</t>
-  </si>
-  <si>
-    <t>Number of Oysters Counted - Live</t>
-  </si>
-  <si>
-    <t>Number of Oysters Counted - Total</t>
-  </si>
-  <si>
-    <t>Reef Height</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>Percent Live</t>
-  </si>
-  <si>
-    <t>Size Class</t>
-  </si>
-  <si>
-    <t>Shell Height</t>
-  </si>
-  <si>
-    <t>Submerged Aquatic Vegetation</t>
-  </si>
-  <si>
-    <t>SAV</t>
-  </si>
-  <si>
-    <t>Braun Blanquet Score</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>0,0.1,0.5,1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>Modified Braun Blanquet Score</t>
-  </si>
-  <si>
-    <t>n = 0.1; t = 0.5</t>
-  </si>
-  <si>
-    <t>Percent Occurrence</t>
-  </si>
-  <si>
-    <t>0 to 100 (inclusive); values should match grid #/100 intervals</t>
-  </si>
-  <si>
-    <t>values should match grid #/100 intervals</t>
-  </si>
-  <si>
-    <t>Shoot Count</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Water Column</t>
-  </si>
-  <si>
-    <t>Nekton</t>
-  </si>
-  <si>
-    <t>Fork Length</t>
-  </si>
-  <si>
-    <t>Snout to Anus</t>
-  </si>
-  <si>
-    <t>Total Length</t>
-  </si>
-  <si>
-    <t>Width</t>
-  </si>
-  <si>
-    <t>Nutrients</t>
-  </si>
-  <si>
-    <t>Discrete WQ</t>
-  </si>
-  <si>
-    <t>Ammonia- Un-ionized (NH3)</t>
-  </si>
-  <si>
-    <t>mg/L</t>
-  </si>
-  <si>
-    <t>NH4 Filtered</t>
-  </si>
-  <si>
-    <t>NO2+3 Filtered</t>
-  </si>
-  <si>
-    <t>Nitrate (N)</t>
-  </si>
-  <si>
-    <t>Nitrite (N)</t>
-  </si>
-  <si>
-    <t>Nitrogen, organic</t>
-  </si>
-  <si>
-    <t>PO4 Filtered</t>
-  </si>
-  <si>
-    <t>Total Kjeldahl Nitrogen TKN</t>
-  </si>
-  <si>
-    <t>Total Nitrogen</t>
-  </si>
-  <si>
-    <t>Total Phosphorus</t>
-  </si>
-  <si>
-    <t>Water Clarity</t>
-  </si>
-  <si>
-    <t>Chlorophyll a corrected for pheophytin</t>
-  </si>
-  <si>
-    <t>ug/L</t>
-  </si>
-  <si>
-    <t>Chlorophyll a uncorrected for pheophytin</t>
-  </si>
-  <si>
-    <t>Colored dissolved organic matter, CDOM</t>
-  </si>
-  <si>
-    <t>PCU</t>
-  </si>
-  <si>
-    <t>Fluorescent dissolved organic matter, FDOM</t>
-  </si>
-  <si>
-    <t>QSE</t>
-  </si>
-  <si>
-    <t>Light Extinction Coefficient</t>
-  </si>
-  <si>
-    <t>m^-1</t>
-  </si>
-  <si>
-    <t>Secchi Depth</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>VOB, 999, &gt;B</t>
-  </si>
-  <si>
-    <t>VOB, 999, &gt;B = "visible on bottom"</t>
-  </si>
-  <si>
-    <t>Total Suspended Solids, TSS</t>
-  </si>
-  <si>
-    <t>Continuous WQ</t>
-  </si>
-  <si>
-    <t>Turbidity</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>Water Quality</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen</t>
-  </si>
-  <si>
-    <t>Dissolved Oxygen Saturation</t>
-  </si>
-  <si>
-    <t>Salinity</t>
-  </si>
-  <si>
-    <t>ppt</t>
-  </si>
-  <si>
-    <t>1 ppt = 1 PSU</t>
-  </si>
-  <si>
-    <t>Specific Conductivity</t>
-  </si>
-  <si>
-    <t>mS/cm</t>
-  </si>
-  <si>
-    <t>1 mS/cm = 1,000 µmhos/cm</t>
-  </si>
-  <si>
-    <t>Water Temperature</t>
-  </si>
-  <si>
-    <t>Degrees C</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>ActionNeeded</t>
   </si>
   <si>
     <t>ActionNeededDate</t>
   </si>
   <si>
+    <t>AdditionalComments</t>
+  </si>
+  <si>
     <t>QuantileSource</t>
   </si>
   <si>
-    <t>AdditionalComments</t>
+    <t>ScriptLatestRunDate</t>
   </si>
   <si>
     <t>ScriptLatestRunVersion</t>
   </si>
   <si>
-    <t>ScriptLatestRunDate</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
-    <t>Database_Thresholds_details.xlsx, Git Commit ID: f1de43644e6a7948a07258196432dd6512c100a5</t>
+    <t>IndicatorQuantiles_2023-11-27.xlsx</t>
+  </si>
+  <si>
+    <t>IndicatorQuantiles.xlsx, Git Commit ID: 4b28b56fe453d4f7055e2f64462469617d7a536d</t>
   </si>
   <si>
     <t>https://github.com/FloridaSEACAR/IndicatorQuantiles/blob/main/IndicatorQuantiles_2023-08-23.xlsx</t>
@@ -464,24 +473,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>IndicatorQuantiles_2023-11-27.xlsx</t>
-  </si>
-  <si>
-    <t>IndicatorQuantiles.xlsx, Git Commit ID: 4b28b56fe453d4f7055e2f64462469617d7a536d</t>
-  </si>
-  <si>
-    <t>Applies to "Total SAV" and "Total Seagrass" Common Identifiers.</t>
-  </si>
-  <si>
-    <t>Calculated Total Nitrogen</t>
-  </si>
-  <si>
-    <t>IndicatorQuantiles.R, Git Commit ID: db49f0f869e1f5a8558dc746458075a467cf2c41</t>
-  </si>
-  <si>
-    <t>Database_Thresholds_details.xlsx, Git Commit ID: 17b6a0f858dccbb28fc8ab3fe179e7fa731e5996</t>
-  </si>
-  <si>
     <t xml:space="preserve">ThresholdID</t>
   </si>
   <si>
@@ -860,13 +851,16 @@
     <t xml:space="preserve">ScriptLatestRunDate</t>
   </si>
   <si>
-    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: d77a77d64f72a744c78cd38270c72c5d9c8cd498</t>
+    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: 2e3ff9a54734c37c56b32bb788c6f054c2509b6b</t>
   </si>
   <si>
     <t xml:space="preserve">U</t>
   </si>
   <si>
-    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: 739fa5586a92c86b193093b77505bce0a35343c3</t>
+    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: f1de43644e6a7948a07258196432dd6512c100a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/FloridaSEACAR/IndicatorQuantiles/blob/main/IndicatorQuantiles_2023-08-23.xlsx</t>
   </si>
   <si>
     <t xml:space="preserve">C</t>
@@ -875,16 +869,25 @@
     <t xml:space="preserve">IndicatorQuantiles_2023-11-27.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: f1de43644e6a7948a07258196432dd6512c100a5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/FloridaSEACAR/IndicatorQuantiles/blob/main/IndicatorQuantiles_2023-08-23.xlsx</t>
+    <t xml:space="preserve">IndicatorQuantiles.xlsx, Git Commit ID: 4b28b56fe453d4f7055e2f64462469617d7a536d</t>
   </si>
   <si>
     <t xml:space="preserve">Applies to "Total SAV" and "Total Seagrass" Common Identifiers.</t>
   </si>
   <si>
     <t xml:space="preserve">Calculated Total Nitrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: db49f0f869e1f5a8558dc746458075a467cf2c41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: 17b6a0f858dccbb28fc8ab3fe179e7fa731e5996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndicatorQuantiles.R, Git Commit ID: 24c5634628309d80791a95cb6332cf2c12927180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database_Thresholds_details.xlsx, Git Commit ID: 2f9a75a2e181f1499170e0e08eb1e1dbff602684</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -923,11 +926,16 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +952,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC2BAFC"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -973,14 +986,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,159 +1277,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="23" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="12" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="50.7109375" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="29.5703125" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" hidden="0" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" hidden="0" customWidth="1"/>
-    <col min="22" max="22" width="43.140625" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="50.6640625" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="29.5546875" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="14.5546875" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="17.77734375" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="43.109375" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="21.77734375" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="18.88671875" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="158.44999999999999" customHeight="1">
+    <row r="1" ht="158.4" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>121</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="S3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>275</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="4">
@@ -1426,27 +1440,27 @@
         <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D4" t="n">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J4"/>
+        <v>170</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -1459,13 +1473,13 @@
         <v>0</v>
       </c>
       <c r="S4"/>
-      <c r="T4" s="4"/>
+      <c r="T4" s="5"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4" t="s">
-        <v>279</v>
-      </c>
-      <c r="X4" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X4" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1477,34 +1491,34 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
       </c>
       <c r="E5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" t="s">
         <v>174</v>
       </c>
-      <c r="F5" t="s">
-        <v>175</v>
-      </c>
-      <c r="G5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" t="s">
-        <v>177</v>
-      </c>
       <c r="I5" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O5" t="n">
         <v>100</v>
@@ -1516,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>280</v>
-      </c>
-      <c r="T5" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T5" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U5" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V5"/>
       <c r="W5" t="s">
-        <v>279</v>
-      </c>
-      <c r="X5" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X5" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1540,32 +1554,32 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D6" t="n">
         <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J6"/>
+        <v>177</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J6" s="4"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O6" t="n">
         <v>4886</v>
@@ -1577,19 +1591,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>280</v>
-      </c>
-      <c r="T6" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T6" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U6" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V6"/>
       <c r="W6" t="s">
-        <v>279</v>
-      </c>
-      <c r="X6" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X6" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1601,34 +1615,34 @@
         <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D7" t="n">
         <v>18</v>
       </c>
       <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" t="s">
         <v>174</v>
       </c>
-      <c r="F7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H7" t="s">
-        <v>177</v>
-      </c>
       <c r="I7" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O7" t="n">
         <v>103.22</v>
@@ -1640,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>280</v>
-      </c>
-      <c r="T7" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T7" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V7"/>
       <c r="W7" t="s">
-        <v>279</v>
-      </c>
-      <c r="X7" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X7" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1664,27 +1678,27 @@
         <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D8" t="n">
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J8"/>
+        <v>170</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J8" s="4"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
@@ -1697,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="S8"/>
-      <c r="T8" s="4"/>
+      <c r="T8" s="5"/>
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8" t="s">
-        <v>279</v>
-      </c>
-      <c r="X8" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X8" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1715,32 +1729,32 @@
         <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D9" t="n">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O9" t="n">
         <v>40.644</v>
@@ -1752,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>280</v>
-      </c>
-      <c r="T9" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T9" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U9" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V9"/>
       <c r="W9" t="s">
-        <v>279</v>
-      </c>
-      <c r="X9" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X9" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1776,30 +1790,30 @@
         <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
       </c>
       <c r="E10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" t="s">
         <v>183</v>
       </c>
-      <c r="F10" t="s">
-        <v>184</v>
-      </c>
-      <c r="G10" t="s">
-        <v>186</v>
-      </c>
       <c r="H10" t="s">
-        <v>186</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
+        <v>183</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O10" t="n">
         <v>115.796</v>
@@ -1811,19 +1825,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>280</v>
-      </c>
-      <c r="T10" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T10" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U10" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V10"/>
       <c r="W10" t="s">
-        <v>279</v>
-      </c>
-      <c r="X10" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X10" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1835,22 +1849,22 @@
         <v>80</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" t="s">
         <v>184</v>
       </c>
-      <c r="G11" t="s">
-        <v>187</v>
-      </c>
       <c r="H11" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1858,7 +1872,7 @@
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
@@ -1870,19 +1884,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>280</v>
-      </c>
-      <c r="T11" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T11" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U11" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V11"/>
       <c r="W11" t="s">
-        <v>279</v>
-      </c>
-      <c r="X11" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X11" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1894,32 +1908,32 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H12" t="s">
-        <v>186</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J12"/>
+        <v>183</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J12" s="4"/>
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O12" t="n">
         <v>858.716</v>
@@ -1931,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>280</v>
-      </c>
-      <c r="T12" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T12" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U12" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V12"/>
       <c r="W12" t="s">
-        <v>279</v>
-      </c>
-      <c r="X12" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X12" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -1955,34 +1969,34 @@
         <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D13" t="n">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" t="s">
         <v>184</v>
       </c>
-      <c r="G13" t="s">
-        <v>187</v>
-      </c>
       <c r="H13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N13" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
@@ -1994,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>280</v>
-      </c>
-      <c r="T13" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T13" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U13" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V13"/>
       <c r="W13" t="s">
-        <v>279</v>
-      </c>
-      <c r="X13" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X13" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2018,22 +2032,22 @@
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D14" t="n">
         <v>11</v>
       </c>
       <c r="E14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" t="s">
         <v>189</v>
       </c>
-      <c r="F14" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" t="s">
-        <v>192</v>
-      </c>
       <c r="H14" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -2053,19 +2067,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>282</v>
-      </c>
-      <c r="T14" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="T14" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V14"/>
       <c r="W14" t="s">
-        <v>279</v>
-      </c>
-      <c r="X14" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X14" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2077,27 +2091,27 @@
         <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D15" t="n">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H15" t="s">
-        <v>193</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="J15"/>
+        <v>190</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="J15" s="4"/>
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
@@ -2114,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>280</v>
-      </c>
-      <c r="T15" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T15" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U15" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V15"/>
       <c r="W15" t="s">
-        <v>279</v>
-      </c>
-      <c r="X15" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X15" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2138,25 +2152,25 @@
         <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D16" t="n">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -2175,19 +2189,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>280</v>
-      </c>
-      <c r="T16" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T16" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U16" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V16"/>
       <c r="W16" t="s">
-        <v>279</v>
-      </c>
-      <c r="X16" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X16" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2199,25 +2213,25 @@
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D17" t="n">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H17" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -2236,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>280</v>
-      </c>
-      <c r="T17" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T17" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U17" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V17"/>
       <c r="W17" t="s">
-        <v>279</v>
-      </c>
-      <c r="X17" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X17" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2260,25 +2274,25 @@
         <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D18" t="n">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G18" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -2297,19 +2311,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>280</v>
-      </c>
-      <c r="T18" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T18" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V18"/>
       <c r="W18" t="s">
-        <v>279</v>
-      </c>
-      <c r="X18" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X18" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2321,34 +2335,34 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D19" t="n">
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O19" t="n">
         <v>33</v>
@@ -2360,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>280</v>
-      </c>
-      <c r="T19" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T19" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U19" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V19"/>
       <c r="W19" t="s">
-        <v>279</v>
-      </c>
-      <c r="X19" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X19" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2384,34 +2398,34 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D20" t="n">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>
@@ -2423,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>280</v>
-      </c>
-      <c r="T20" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T20" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U20" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V20"/>
       <c r="W20" t="s">
-        <v>279</v>
-      </c>
-      <c r="X20" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X20" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2447,25 +2461,25 @@
         <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D21" t="n">
         <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -2480,13 +2494,13 @@
         <v>0</v>
       </c>
       <c r="S21"/>
-      <c r="T21" s="4"/>
+      <c r="T21" s="5"/>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21" t="s">
-        <v>279</v>
-      </c>
-      <c r="X21" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X21" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2498,32 +2512,32 @@
         <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D22" t="n">
         <v>13</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H22" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I22" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O22" t="n">
         <v>7387.008</v>
@@ -2535,19 +2549,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>280</v>
-      </c>
-      <c r="T22" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T22" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U22" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V22"/>
       <c r="W22" t="s">
-        <v>279</v>
-      </c>
-      <c r="X22" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X22" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2559,34 +2573,34 @@
         <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D23" t="n">
         <v>13</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H23" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
       <c r="L23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O23" t="n">
         <v>27.85</v>
@@ -2598,19 +2612,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>280</v>
-      </c>
-      <c r="T23" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T23" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U23" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V23"/>
       <c r="W23" t="s">
-        <v>279</v>
-      </c>
-      <c r="X23" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X23" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2622,36 +2636,36 @@
         <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D24" t="n">
         <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H24" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I24" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
         <v>0.0625</v>
       </c>
       <c r="L24" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O24" t="n">
         <v>100</v>
@@ -2663,19 +2677,19 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>280</v>
-      </c>
-      <c r="T24" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T24" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U24" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V24"/>
       <c r="W24" t="s">
-        <v>279</v>
-      </c>
-      <c r="X24" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X24" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2687,36 +2701,36 @@
         <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D25" t="n">
         <v>13</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H25" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I25" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="n">
         <v>0.1</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O25" t="n">
         <v>67.76</v>
@@ -2728,19 +2742,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>280</v>
-      </c>
-      <c r="T25" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T25" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U25" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V25"/>
       <c r="W25" t="s">
-        <v>279</v>
-      </c>
-      <c r="X25" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X25" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2752,36 +2766,36 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D26" t="n">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G26" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H26" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="n">
         <v>0.25</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O26" t="n">
         <v>168.28</v>
@@ -2793,19 +2807,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>280</v>
-      </c>
-      <c r="T26" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T26" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U26" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V26"/>
       <c r="W26" t="s">
-        <v>279</v>
-      </c>
-      <c r="X26" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X26" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2817,36 +2831,36 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D27" t="n">
         <v>13</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J27"/>
       <c r="K27" t="n">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O27" t="n">
         <v>171.616</v>
@@ -2858,19 +2872,19 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>280</v>
-      </c>
-      <c r="T27" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T27" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U27" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V27"/>
       <c r="W27" t="s">
-        <v>279</v>
-      </c>
-      <c r="X27" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X27" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2882,34 +2896,34 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D28" t="n">
         <v>13</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
         <v>201</v>
       </c>
-      <c r="G28" t="s">
-        <v>204</v>
-      </c>
       <c r="H28" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I28" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
       <c r="L28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O28" t="n">
         <v>101.124</v>
@@ -2921,19 +2935,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="s">
-        <v>280</v>
-      </c>
-      <c r="T28" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T28" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U28" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V28"/>
       <c r="W28" t="s">
-        <v>279</v>
-      </c>
-      <c r="X28" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X28" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -2945,36 +2959,36 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D29" t="n">
         <v>13</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
         <v>201</v>
       </c>
-      <c r="G29" t="s">
-        <v>204</v>
-      </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J29"/>
       <c r="K29" t="n">
         <v>0.0625</v>
       </c>
       <c r="L29" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M29"/>
       <c r="N29" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O29" t="n">
         <v>223.521</v>
@@ -2986,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>280</v>
-      </c>
-      <c r="T29" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T29" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U29" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V29"/>
       <c r="W29" t="s">
-        <v>279</v>
-      </c>
-      <c r="X29" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X29" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3010,36 +3024,36 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D30" t="n">
         <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F30" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" t="s">
         <v>201</v>
       </c>
-      <c r="G30" t="s">
-        <v>204</v>
-      </c>
       <c r="H30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I30" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="n">
         <v>0.1</v>
       </c>
       <c r="L30" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O30" t="n">
         <v>263</v>
@@ -3051,19 +3065,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>280</v>
-      </c>
-      <c r="T30" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T30" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U30" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V30"/>
       <c r="W30" t="s">
-        <v>279</v>
-      </c>
-      <c r="X30" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X30" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3075,36 +3089,36 @@
         <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D31" t="n">
         <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F31" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" t="s">
         <v>201</v>
       </c>
-      <c r="G31" t="s">
-        <v>204</v>
-      </c>
       <c r="H31" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I31" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="n">
         <v>0.25</v>
       </c>
       <c r="L31" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M31"/>
       <c r="N31" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O31" t="n">
         <v>457.825</v>
@@ -3116,19 +3130,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>280</v>
-      </c>
-      <c r="T31" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T31" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U31" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V31"/>
       <c r="W31" t="s">
-        <v>279</v>
-      </c>
-      <c r="X31" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X31" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3140,36 +3154,36 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D32" t="n">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" t="s">
         <v>201</v>
       </c>
-      <c r="G32" t="s">
-        <v>204</v>
-      </c>
       <c r="H32" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I32" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="n">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O32" t="n">
         <v>267.6</v>
@@ -3181,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>280</v>
-      </c>
-      <c r="T32" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T32" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U32" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V32"/>
       <c r="W32" t="s">
-        <v>279</v>
-      </c>
-      <c r="X32" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X32" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3205,34 +3219,34 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D33" t="n">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F33" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H33" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I33" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O33" t="n">
         <v>104.5</v>
@@ -3244,19 +3258,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>280</v>
-      </c>
-      <c r="T33" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T33" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U33" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V33"/>
       <c r="W33" t="s">
-        <v>279</v>
-      </c>
-      <c r="X33" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X33" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3268,36 +3282,36 @@
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D34" t="n">
         <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F34" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I34" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="n">
         <v>0.0625</v>
       </c>
       <c r="L34" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O34" t="n">
         <v>531.956</v>
@@ -3309,19 +3323,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>280</v>
-      </c>
-      <c r="T34" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T34" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U34" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V34"/>
       <c r="W34" t="s">
-        <v>279</v>
-      </c>
-      <c r="X34" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X34" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3333,36 +3347,36 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D35" t="n">
         <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F35" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I35" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="n">
         <v>0.1</v>
       </c>
       <c r="L35" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O35" t="n">
         <v>288.2</v>
@@ -3374,19 +3388,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>280</v>
-      </c>
-      <c r="T35" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T35" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U35" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V35"/>
       <c r="W35" t="s">
-        <v>279</v>
-      </c>
-      <c r="X35" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X35" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3398,36 +3412,36 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D36" t="n">
         <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G36" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H36" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I36" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J36"/>
       <c r="K36" t="n">
         <v>0.25</v>
       </c>
       <c r="L36" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M36"/>
       <c r="N36" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O36" t="n">
         <v>584.432</v>
@@ -3439,19 +3453,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>280</v>
-      </c>
-      <c r="T36" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T36" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U36" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V36"/>
       <c r="W36" t="s">
-        <v>279</v>
-      </c>
-      <c r="X36" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X36" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3463,36 +3477,36 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D37" t="n">
         <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H37" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I37" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="n">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O37" t="n">
         <v>305.164</v>
@@ -3504,19 +3518,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>280</v>
-      </c>
-      <c r="T37" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T37" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U37" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V37"/>
       <c r="W37" t="s">
-        <v>279</v>
-      </c>
-      <c r="X37" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X37" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3528,25 +3542,25 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D38" t="n">
         <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F38" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G38" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H38" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I38" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
@@ -3565,19 +3579,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>280</v>
-      </c>
-      <c r="T38" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T38" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V38"/>
       <c r="W38" t="s">
-        <v>279</v>
-      </c>
-      <c r="X38" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X38" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3589,32 +3603,32 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D39" t="n">
         <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H39" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
       <c r="N39" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O39" t="n">
         <v>100</v>
@@ -3626,19 +3640,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>280</v>
-      </c>
-      <c r="T39" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T39" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U39" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V39"/>
       <c r="W39" t="s">
-        <v>279</v>
-      </c>
-      <c r="X39" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X39" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3650,25 +3664,25 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D40" t="n">
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F40" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G40" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H40" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -3687,19 +3701,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>280</v>
-      </c>
-      <c r="T40" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T40" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V40"/>
       <c r="W40" t="s">
-        <v>279</v>
-      </c>
-      <c r="X40" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X40" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3711,25 +3725,25 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D41" t="n">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F41" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H41" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I41" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J41"/>
       <c r="K41" t="n">
@@ -3750,19 +3764,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>280</v>
-      </c>
-      <c r="T41" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T41" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U41" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V41"/>
       <c r="W41" t="s">
-        <v>279</v>
-      </c>
-      <c r="X41" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X41" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3774,25 +3788,25 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D42" t="n">
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H42" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
@@ -3813,15 +3827,15 @@
         <v>0</v>
       </c>
       <c r="S42"/>
-      <c r="T42" s="4"/>
+      <c r="T42" s="5"/>
       <c r="U42" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V42"/>
       <c r="W42" t="s">
-        <v>279</v>
-      </c>
-      <c r="X42" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X42" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3833,25 +3847,25 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D43" t="n">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G43" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H43" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
@@ -3872,15 +3886,15 @@
         <v>0</v>
       </c>
       <c r="S43"/>
-      <c r="T43" s="4"/>
+      <c r="T43" s="5"/>
       <c r="U43" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V43"/>
       <c r="W43" t="s">
-        <v>279</v>
-      </c>
-      <c r="X43" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X43" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3892,25 +3906,25 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D44" t="n">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G44" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H44" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I44" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
@@ -3931,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>280</v>
-      </c>
-      <c r="T44" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T44" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V44"/>
       <c r="W44" t="s">
-        <v>279</v>
-      </c>
-      <c r="X44" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X44" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -3955,25 +3969,25 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D45" t="n">
         <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F45" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G45" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H45" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
@@ -3982,7 +3996,7 @@
       <c r="L45"/>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O45" t="n">
         <v>114.37</v>
@@ -3994,19 +4008,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>280</v>
-      </c>
-      <c r="T45" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T45" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U45" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V45"/>
       <c r="W45" t="s">
-        <v>279</v>
-      </c>
-      <c r="X45" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X45" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4018,25 +4032,25 @@
         <v>25</v>
       </c>
       <c r="C46" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D46" t="n">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F46" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I46" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -4051,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="S46"/>
-      <c r="T46" s="4"/>
+      <c r="T46" s="5"/>
       <c r="U46"/>
       <c r="V46"/>
       <c r="W46" t="s">
-        <v>279</v>
-      </c>
-      <c r="X46" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X46" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4069,32 +4083,32 @@
         <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F47" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G47" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H47" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
       <c r="L47" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M47"/>
       <c r="N47" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O47" t="n">
         <v>69</v>
@@ -4106,19 +4120,19 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>280</v>
-      </c>
-      <c r="T47" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T47" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U47" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V47"/>
       <c r="W47" t="s">
-        <v>279</v>
-      </c>
-      <c r="X47" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X47" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4130,31 +4144,31 @@
         <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H48" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I48"/>
       <c r="J48"/>
       <c r="K48"/>
       <c r="L48" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M48" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N48" t="n">
         <v>0.5</v>
@@ -4169,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S48" t="s">
-        <v>280</v>
-      </c>
-      <c r="T48" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T48" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U48" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V48"/>
       <c r="W48" t="s">
-        <v>279</v>
-      </c>
-      <c r="X48" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X48" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4193,34 +4207,34 @@
         <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F49" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G49" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I49" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
       <c r="L49" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O49" t="n">
         <v>100</v>
@@ -4232,19 +4246,19 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>280</v>
-      </c>
-      <c r="T49" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T49" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U49" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V49"/>
       <c r="W49" t="s">
-        <v>279</v>
-      </c>
-      <c r="X49" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X49" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4256,32 +4270,32 @@
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H50" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I50" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
       <c r="N50" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O50" t="n">
         <v>100</v>
@@ -4293,21 +4307,21 @@
         <v>1</v>
       </c>
       <c r="S50" t="s">
-        <v>280</v>
-      </c>
-      <c r="T50" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T50" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U50" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V50" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W50" t="s">
-        <v>279</v>
-      </c>
-      <c r="X50" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X50" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4319,34 +4333,34 @@
         <v>70</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F51" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G51" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H51" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I51" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
       <c r="L51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M51"/>
       <c r="N51" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O51" t="n">
         <v>100</v>
@@ -4358,19 +4372,19 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>280</v>
-      </c>
-      <c r="T51" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T51" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U51" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V51"/>
       <c r="W51" t="s">
-        <v>279</v>
-      </c>
-      <c r="X51" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X51" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4382,34 +4396,34 @@
         <v>70</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F52" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I52" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O52" t="n">
         <v>100</v>
@@ -4421,21 +4435,21 @@
         <v>1</v>
       </c>
       <c r="S52" t="s">
-        <v>280</v>
-      </c>
-      <c r="T52" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T52" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U52" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V52" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="W52" t="s">
-        <v>279</v>
-      </c>
-      <c r="X52" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X52" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4447,34 +4461,34 @@
         <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H53" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I53"/>
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N53" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O53" t="n">
         <v>1</v>
@@ -4486,19 +4500,19 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>280</v>
-      </c>
-      <c r="T53" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T53" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U53" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V53"/>
       <c r="W53" t="s">
-        <v>279</v>
-      </c>
-      <c r="X53" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X53" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4510,32 +4524,32 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F54" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H54" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="I54" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O54" t="n">
         <v>5000</v>
@@ -4547,19 +4561,19 @@
         <v>0</v>
       </c>
       <c r="S54" t="s">
-        <v>280</v>
-      </c>
-      <c r="T54" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T54" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U54" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V54"/>
       <c r="W54" t="s">
-        <v>279</v>
-      </c>
-      <c r="X54" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X54" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4571,32 +4585,32 @@
         <v>35</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D55" t="n">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H55" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I55" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O55" t="n">
         <v>1000</v>
@@ -4608,19 +4622,19 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>280</v>
-      </c>
-      <c r="T55" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T55" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U55" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V55"/>
       <c r="W55" t="s">
-        <v>279</v>
-      </c>
-      <c r="X55" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X55" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4632,22 +4646,22 @@
         <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D56" t="n">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G56" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H56" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I56" t="n">
         <v>0.000001</v>
@@ -4665,13 +4679,13 @@
         <v>0</v>
       </c>
       <c r="S56"/>
-      <c r="T56" s="4"/>
+      <c r="T56" s="5"/>
       <c r="U56"/>
       <c r="V56"/>
       <c r="W56" t="s">
-        <v>279</v>
-      </c>
-      <c r="X56" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X56" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4683,34 +4697,34 @@
         <v>36</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D57" t="n">
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F57" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H57" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I57"/>
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="N57" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -4722,19 +4736,19 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>280</v>
-      </c>
-      <c r="T57" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T57" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U57" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V57"/>
       <c r="W57" t="s">
-        <v>279</v>
-      </c>
-      <c r="X57" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X57" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4746,22 +4760,22 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D58" t="n">
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F58" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G58" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I58" t="n">
         <v>0.000001</v>
@@ -4779,13 +4793,13 @@
         <v>0</v>
       </c>
       <c r="S58"/>
-      <c r="T58" s="4"/>
+      <c r="T58" s="5"/>
       <c r="U58"/>
       <c r="V58"/>
       <c r="W58" t="s">
-        <v>279</v>
-      </c>
-      <c r="X58" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X58" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4797,22 +4811,22 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D59" t="n">
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F59" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G59" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H59" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I59" t="n">
         <v>0.000001</v>
@@ -4834,15 +4848,15 @@
         <v>0</v>
       </c>
       <c r="S59"/>
-      <c r="T59" s="4"/>
+      <c r="T59" s="5"/>
       <c r="U59" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V59"/>
       <c r="W59" t="s">
-        <v>279</v>
-      </c>
-      <c r="X59" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X59" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4854,22 +4868,22 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D60" t="n">
         <v>9</v>
       </c>
       <c r="E60" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" t="s">
+        <v>221</v>
+      </c>
+      <c r="G60" t="s">
         <v>224</v>
       </c>
-      <c r="F60" t="s">
-        <v>224</v>
-      </c>
-      <c r="G60" t="s">
-        <v>227</v>
-      </c>
       <c r="H60" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I60" t="n">
         <v>0.000001</v>
@@ -4887,13 +4901,13 @@
         <v>0</v>
       </c>
       <c r="S60"/>
-      <c r="T60" s="4"/>
+      <c r="T60" s="5"/>
       <c r="U60"/>
       <c r="V60"/>
       <c r="W60" t="s">
-        <v>279</v>
-      </c>
-      <c r="X60" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X60" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4905,22 +4919,22 @@
         <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D61" t="n">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F61" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I61" t="n">
         <v>0.000001</v>
@@ -4938,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="S61"/>
-      <c r="T61" s="4"/>
+      <c r="T61" s="5"/>
       <c r="U61"/>
       <c r="V61"/>
       <c r="W61" t="s">
-        <v>279</v>
-      </c>
-      <c r="X61" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X61" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -4956,32 +4970,32 @@
         <v>72</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D62" t="n">
         <v>6</v>
       </c>
       <c r="E62" t="s">
+        <v>226</v>
+      </c>
+      <c r="F62" t="s">
+        <v>227</v>
+      </c>
+      <c r="G62" t="s">
+        <v>228</v>
+      </c>
+      <c r="H62" t="s">
         <v>229</v>
-      </c>
-      <c r="F62" t="s">
-        <v>230</v>
-      </c>
-      <c r="G62" t="s">
-        <v>231</v>
-      </c>
-      <c r="H62" t="s">
-        <v>232</v>
       </c>
       <c r="I62"/>
       <c r="J62"/>
-      <c r="K62"/>
+      <c r="K62" s="4"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62" t="n">
         <v>0.003</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62" s="4" t="n">
         <v>0.478</v>
       </c>
       <c r="P62" t="n">
@@ -4991,19 +5005,19 @@
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>280</v>
-      </c>
-      <c r="T62" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T62" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U62" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V62"/>
       <c r="W62" t="s">
-        <v>279</v>
-      </c>
-      <c r="X62" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X62" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5015,32 +5029,32 @@
         <v>18</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D63" t="n">
         <v>6</v>
       </c>
       <c r="E63" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" t="s">
+        <v>230</v>
+      </c>
+      <c r="H63" t="s">
         <v>229</v>
-      </c>
-      <c r="F63" t="s">
-        <v>230</v>
-      </c>
-      <c r="G63" t="s">
-        <v>233</v>
-      </c>
-      <c r="H63" t="s">
-        <v>232</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
-      <c r="K63"/>
+      <c r="K63" s="4"/>
       <c r="L63"/>
       <c r="M63"/>
       <c r="N63" t="n">
         <v>-0.026</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O63" s="4" t="n">
         <v>5.735</v>
       </c>
       <c r="P63" t="n">
@@ -5050,19 +5064,19 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>280</v>
-      </c>
-      <c r="T63" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T63" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U63" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V63"/>
       <c r="W63" t="s">
-        <v>279</v>
-      </c>
-      <c r="X63" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X63" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5074,32 +5088,32 @@
         <v>17</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
       </c>
       <c r="E64" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" t="s">
+        <v>227</v>
+      </c>
+      <c r="G64" t="s">
+        <v>231</v>
+      </c>
+      <c r="H64" t="s">
         <v>229</v>
-      </c>
-      <c r="F64" t="s">
-        <v>230</v>
-      </c>
-      <c r="G64" t="s">
-        <v>234</v>
-      </c>
-      <c r="H64" t="s">
-        <v>232</v>
       </c>
       <c r="I64"/>
       <c r="J64"/>
-      <c r="K64"/>
+      <c r="K64" s="4"/>
       <c r="L64"/>
       <c r="M64"/>
       <c r="N64" t="n">
         <v>-0.002</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64" s="4" t="n">
         <v>3.24</v>
       </c>
       <c r="P64" t="n">
@@ -5109,19 +5123,19 @@
         <v>0</v>
       </c>
       <c r="S64" t="s">
-        <v>280</v>
-      </c>
-      <c r="T64" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T64" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U64" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V64"/>
       <c r="W64" t="s">
-        <v>279</v>
-      </c>
-      <c r="X64" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X64" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5133,32 +5147,32 @@
         <v>73</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D65" t="n">
         <v>6</v>
       </c>
       <c r="E65" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" t="s">
+        <v>227</v>
+      </c>
+      <c r="G65" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" t="s">
         <v>229</v>
-      </c>
-      <c r="F65" t="s">
-        <v>230</v>
-      </c>
-      <c r="G65" t="s">
-        <v>235</v>
-      </c>
-      <c r="H65" t="s">
-        <v>232</v>
       </c>
       <c r="I65"/>
       <c r="J65"/>
-      <c r="K65"/>
+      <c r="K65" s="4"/>
       <c r="L65"/>
       <c r="M65"/>
       <c r="N65" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O65" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O65" s="4" t="n">
         <v>0.79</v>
       </c>
       <c r="P65" t="n">
@@ -5168,19 +5182,19 @@
         <v>0</v>
       </c>
       <c r="S65" t="s">
-        <v>280</v>
-      </c>
-      <c r="T65" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T65" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U65" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V65"/>
       <c r="W65" t="s">
-        <v>279</v>
-      </c>
-      <c r="X65" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X65" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5192,32 +5206,32 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D66" t="n">
         <v>6</v>
       </c>
       <c r="E66" t="s">
+        <v>226</v>
+      </c>
+      <c r="F66" t="s">
+        <v>227</v>
+      </c>
+      <c r="G66" t="s">
+        <v>233</v>
+      </c>
+      <c r="H66" t="s">
         <v>229</v>
-      </c>
-      <c r="F66" t="s">
-        <v>230</v>
-      </c>
-      <c r="G66" t="s">
-        <v>236</v>
-      </c>
-      <c r="H66" t="s">
-        <v>232</v>
       </c>
       <c r="I66"/>
       <c r="J66"/>
-      <c r="K66"/>
+      <c r="K66" s="4"/>
       <c r="L66"/>
       <c r="M66"/>
       <c r="N66" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O66" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O66" s="4" t="n">
         <v>0.074</v>
       </c>
       <c r="P66" t="n">
@@ -5227,19 +5241,19 @@
         <v>0</v>
       </c>
       <c r="S66" t="s">
-        <v>280</v>
-      </c>
-      <c r="T66" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T66" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U66" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V66"/>
       <c r="W66" t="s">
-        <v>279</v>
-      </c>
-      <c r="X66" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X66" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5251,32 +5265,32 @@
         <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D67" t="n">
         <v>6</v>
       </c>
       <c r="E67" t="s">
+        <v>226</v>
+      </c>
+      <c r="F67" t="s">
+        <v>227</v>
+      </c>
+      <c r="G67" t="s">
+        <v>234</v>
+      </c>
+      <c r="H67" t="s">
         <v>229</v>
-      </c>
-      <c r="F67" t="s">
-        <v>230</v>
-      </c>
-      <c r="G67" t="s">
-        <v>237</v>
-      </c>
-      <c r="H67" t="s">
-        <v>232</v>
       </c>
       <c r="I67"/>
       <c r="J67"/>
-      <c r="K67"/>
+      <c r="K67" s="4"/>
       <c r="L67"/>
       <c r="M67"/>
       <c r="N67" t="n">
         <v>0.029</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O67" s="4" t="n">
         <v>2.7</v>
       </c>
       <c r="P67" t="n">
@@ -5286,15 +5300,15 @@
         <v>0</v>
       </c>
       <c r="S67"/>
-      <c r="T67" s="4"/>
+      <c r="T67" s="5"/>
       <c r="U67" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="V67"/>
       <c r="W67" t="s">
-        <v>279</v>
-      </c>
-      <c r="X67" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X67" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5306,32 +5320,32 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
       </c>
       <c r="E68" t="s">
+        <v>226</v>
+      </c>
+      <c r="F68" t="s">
+        <v>227</v>
+      </c>
+      <c r="G68" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" t="s">
         <v>229</v>
-      </c>
-      <c r="F68" t="s">
-        <v>230</v>
-      </c>
-      <c r="G68" t="s">
-        <v>238</v>
-      </c>
-      <c r="H68" t="s">
-        <v>232</v>
       </c>
       <c r="I68"/>
       <c r="J68"/>
-      <c r="K68"/>
+      <c r="K68" s="4"/>
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68" t="n">
         <v>-0.007</v>
       </c>
-      <c r="O68" t="n">
+      <c r="O68" s="4" t="n">
         <v>0.769</v>
       </c>
       <c r="P68" t="n">
@@ -5341,19 +5355,19 @@
         <v>0</v>
       </c>
       <c r="S68" t="s">
-        <v>280</v>
-      </c>
-      <c r="T68" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T68" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U68" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V68"/>
       <c r="W68" t="s">
-        <v>279</v>
-      </c>
-      <c r="X68" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X68" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5365,22 +5379,22 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D69" t="n">
         <v>6</v>
       </c>
       <c r="E69" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" t="s">
+        <v>236</v>
+      </c>
+      <c r="H69" t="s">
         <v>229</v>
-      </c>
-      <c r="F69" t="s">
-        <v>230</v>
-      </c>
-      <c r="G69" t="s">
-        <v>239</v>
-      </c>
-      <c r="H69" t="s">
-        <v>232</v>
       </c>
       <c r="I69"/>
       <c r="J69"/>
@@ -5388,7 +5402,7 @@
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O69" t="n">
         <v>5.215</v>
@@ -5400,19 +5414,19 @@
         <v>0</v>
       </c>
       <c r="S69" t="s">
-        <v>280</v>
-      </c>
-      <c r="T69" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T69" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U69" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V69"/>
       <c r="W69" t="s">
-        <v>279</v>
-      </c>
-      <c r="X69" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X69" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5424,22 +5438,22 @@
         <v>15</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
       </c>
       <c r="E70" t="s">
+        <v>226</v>
+      </c>
+      <c r="F70" t="s">
+        <v>227</v>
+      </c>
+      <c r="G70" t="s">
+        <v>237</v>
+      </c>
+      <c r="H70" t="s">
         <v>229</v>
-      </c>
-      <c r="F70" t="s">
-        <v>230</v>
-      </c>
-      <c r="G70" t="s">
-        <v>240</v>
-      </c>
-      <c r="H70" t="s">
-        <v>232</v>
       </c>
       <c r="I70"/>
       <c r="J70"/>
@@ -5447,7 +5461,7 @@
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O70" t="n">
         <v>2.656</v>
@@ -5459,19 +5473,19 @@
         <v>0</v>
       </c>
       <c r="S70" t="s">
-        <v>280</v>
-      </c>
-      <c r="T70" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T70" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U70" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V70"/>
       <c r="W70" t="s">
-        <v>279</v>
-      </c>
-      <c r="X70" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X70" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5483,22 +5497,22 @@
         <v>15</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D71" t="n">
         <v>6</v>
       </c>
       <c r="E71" t="s">
+        <v>226</v>
+      </c>
+      <c r="F71" t="s">
+        <v>227</v>
+      </c>
+      <c r="G71" t="s">
+        <v>237</v>
+      </c>
+      <c r="H71" t="s">
         <v>229</v>
-      </c>
-      <c r="F71" t="s">
-        <v>230</v>
-      </c>
-      <c r="G71" t="s">
-        <v>240</v>
-      </c>
-      <c r="H71" t="s">
-        <v>232</v>
       </c>
       <c r="I71"/>
       <c r="J71"/>
@@ -5506,7 +5520,7 @@
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O71" t="n">
         <v>4.246</v>
@@ -5518,21 +5532,21 @@
         <v>0</v>
       </c>
       <c r="S71" t="s">
-        <v>280</v>
-      </c>
-      <c r="T71" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T71" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U71" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V71" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="W71" t="s">
-        <v>279</v>
-      </c>
-      <c r="X71" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X71" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5544,32 +5558,32 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D72" t="n">
         <v>6</v>
       </c>
       <c r="E72" t="s">
+        <v>226</v>
+      </c>
+      <c r="F72" t="s">
+        <v>227</v>
+      </c>
+      <c r="G72" t="s">
+        <v>238</v>
+      </c>
+      <c r="H72" t="s">
         <v>229</v>
-      </c>
-      <c r="F72" t="s">
-        <v>230</v>
-      </c>
-      <c r="G72" t="s">
-        <v>241</v>
-      </c>
-      <c r="H72" t="s">
-        <v>232</v>
       </c>
       <c r="I72"/>
       <c r="J72"/>
-      <c r="K72"/>
+      <c r="K72" s="4"/>
       <c r="L72"/>
       <c r="M72"/>
       <c r="N72" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O72" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O72" s="4" t="n">
         <v>0.74</v>
       </c>
       <c r="P72" t="n">
@@ -5579,19 +5593,19 @@
         <v>0</v>
       </c>
       <c r="S72" t="s">
-        <v>280</v>
-      </c>
-      <c r="T72" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T72" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U72" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V72"/>
       <c r="W72" t="s">
-        <v>279</v>
-      </c>
-      <c r="X72" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X72" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5603,32 +5617,32 @@
         <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D73" t="n">
         <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F73" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G73" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H73" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I73"/>
       <c r="J73"/>
-      <c r="K73"/>
+      <c r="K73" s="4"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O73" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O73" s="4" t="n">
         <v>112</v>
       </c>
       <c r="P73" t="n">
@@ -5638,19 +5652,19 @@
         <v>0</v>
       </c>
       <c r="S73" t="s">
-        <v>280</v>
-      </c>
-      <c r="T73" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T73" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U73" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V73"/>
       <c r="W73" t="s">
-        <v>279</v>
-      </c>
-      <c r="X73" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X73" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5662,32 +5676,32 @@
         <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D74" t="n">
         <v>8</v>
       </c>
       <c r="E74" t="s">
+        <v>239</v>
+      </c>
+      <c r="F74" t="s">
+        <v>227</v>
+      </c>
+      <c r="G74" t="s">
         <v>242</v>
       </c>
-      <c r="F74" t="s">
-        <v>230</v>
-      </c>
-      <c r="G74" t="s">
-        <v>245</v>
-      </c>
       <c r="H74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I74"/>
       <c r="J74"/>
-      <c r="K74"/>
+      <c r="K74" s="4"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O74" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O74" s="4" t="n">
         <v>119.614</v>
       </c>
       <c r="P74" t="n">
@@ -5697,19 +5711,19 @@
         <v>0</v>
       </c>
       <c r="S74" t="s">
-        <v>280</v>
-      </c>
-      <c r="T74" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T74" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U74" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V74"/>
       <c r="W74" t="s">
-        <v>279</v>
-      </c>
-      <c r="X74" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X74" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5721,32 +5735,32 @@
         <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D75" t="n">
         <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F75" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G75" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H75" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I75"/>
       <c r="J75"/>
-      <c r="K75"/>
+      <c r="K75" s="4"/>
       <c r="L75"/>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O75" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O75" s="4" t="n">
         <v>718.17</v>
       </c>
       <c r="P75" t="n">
@@ -5756,19 +5770,19 @@
         <v>0</v>
       </c>
       <c r="S75" t="s">
-        <v>280</v>
-      </c>
-      <c r="T75" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T75" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U75" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V75"/>
       <c r="W75" t="s">
-        <v>279</v>
-      </c>
-      <c r="X75" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X75" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5780,22 +5794,22 @@
         <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D76" t="n">
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F76" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G76" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H76" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I76"/>
       <c r="J76"/>
@@ -5811,13 +5825,13 @@
         <v>0</v>
       </c>
       <c r="S76"/>
-      <c r="T76" s="4"/>
+      <c r="T76" s="5"/>
       <c r="U76"/>
       <c r="V76"/>
       <c r="W76" t="s">
-        <v>279</v>
-      </c>
-      <c r="X76" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X76" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5829,22 +5843,22 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D77" t="n">
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F77" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H77" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I77"/>
       <c r="J77"/>
@@ -5864,19 +5878,19 @@
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>280</v>
-      </c>
-      <c r="T77" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T77" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U77" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V77"/>
       <c r="W77" t="s">
-        <v>279</v>
-      </c>
-      <c r="X77" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X77" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5888,22 +5902,22 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G78" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H78" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I78" t="n">
         <v>0.000001</v>
@@ -5913,13 +5927,13 @@
       </c>
       <c r="K78"/>
       <c r="L78" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M78" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="N78" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O78" t="n">
         <v>15.2</v>
@@ -5931,19 +5945,19 @@
         <v>0</v>
       </c>
       <c r="S78" t="s">
-        <v>280</v>
-      </c>
-      <c r="T78" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T78" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U78" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V78"/>
       <c r="W78" t="s">
-        <v>279</v>
-      </c>
-      <c r="X78" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X78" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -5955,32 +5969,32 @@
         <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D79" t="n">
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F79" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G79" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H79" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I79"/>
       <c r="J79"/>
-      <c r="K79"/>
+      <c r="K79" s="4"/>
       <c r="L79"/>
       <c r="M79"/>
-      <c r="N79" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O79" t="n">
+      <c r="N79" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O79" s="4" t="n">
         <v>185.782</v>
       </c>
       <c r="P79" t="n">
@@ -5990,19 +6004,19 @@
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>280</v>
-      </c>
-      <c r="T79" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T79" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U79" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V79"/>
       <c r="W79" t="s">
-        <v>279</v>
-      </c>
-      <c r="X79" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X79" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6014,36 +6028,36 @@
         <v>7</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D80" t="n">
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F80" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H80" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I80" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J80" t="n">
         <v>4000</v>
       </c>
-      <c r="K80"/>
+      <c r="K80" s="4"/>
       <c r="L80"/>
       <c r="M80"/>
-      <c r="N80" t="n">
+      <c r="N80" s="4" t="n">
         <v>-1</v>
       </c>
-      <c r="O80" t="n">
+      <c r="O80" s="4" t="n">
         <v>533</v>
       </c>
       <c r="P80" t="n">
@@ -6053,19 +6067,19 @@
         <v>0</v>
       </c>
       <c r="S80" t="s">
-        <v>280</v>
-      </c>
-      <c r="T80" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T80" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U80" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V80"/>
       <c r="W80" t="s">
-        <v>279</v>
-      </c>
-      <c r="X80" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X80" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6077,32 +6091,32 @@
         <v>7</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D81" t="n">
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G81" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H81" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I81"/>
       <c r="J81"/>
-      <c r="K81"/>
+      <c r="K81" s="4"/>
       <c r="L81"/>
       <c r="M81"/>
-      <c r="N81" t="n">
-        <v>0.000001</v>
-      </c>
-      <c r="O81" t="n">
+      <c r="N81" s="4" t="n">
+        <v>-0.000001</v>
+      </c>
+      <c r="O81" s="4" t="n">
         <v>127</v>
       </c>
       <c r="P81" t="n">
@@ -6112,19 +6126,19 @@
         <v>0</v>
       </c>
       <c r="S81" t="s">
-        <v>280</v>
-      </c>
-      <c r="T81" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T81" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U81" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V81"/>
       <c r="W81" t="s">
-        <v>279</v>
-      </c>
-      <c r="X81" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X81" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6136,36 +6150,36 @@
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D82" t="n">
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G82" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H82" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I82" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J82" t="n">
         <v>50</v>
       </c>
-      <c r="K82"/>
+      <c r="K82" s="4"/>
       <c r="L82"/>
       <c r="M82"/>
-      <c r="N82" t="n">
+      <c r="N82" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="O82" t="n">
+      <c r="O82" s="4" t="n">
         <v>13.4</v>
       </c>
       <c r="P82" t="n">
@@ -6175,19 +6189,19 @@
         <v>0</v>
       </c>
       <c r="S82" t="s">
-        <v>282</v>
-      </c>
-      <c r="T82" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="T82" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U82" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V82"/>
       <c r="W82" t="s">
-        <v>279</v>
-      </c>
-      <c r="X82" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X82" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6199,22 +6213,22 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D83" t="n">
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F83" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G83" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H83" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I83" t="n">
         <v>0.000001</v>
@@ -6222,13 +6236,13 @@
       <c r="J83" t="n">
         <v>22</v>
       </c>
-      <c r="K83"/>
+      <c r="K83" s="4"/>
       <c r="L83"/>
       <c r="M83"/>
-      <c r="N83" t="n">
+      <c r="N83" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="O83" t="n">
+      <c r="O83" s="4" t="n">
         <v>14.3</v>
       </c>
       <c r="P83" t="n">
@@ -6238,19 +6252,19 @@
         <v>0</v>
       </c>
       <c r="S83" t="s">
-        <v>280</v>
-      </c>
-      <c r="T83" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T83" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U83" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V83"/>
       <c r="W83" t="s">
-        <v>279</v>
-      </c>
-      <c r="X83" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X83" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6262,36 +6276,36 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D84" t="n">
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F84" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G84" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H84" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I84" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J84" t="n">
         <v>500</v>
       </c>
-      <c r="K84"/>
+      <c r="K84" s="4"/>
       <c r="L84"/>
       <c r="M84"/>
-      <c r="N84" t="n">
+      <c r="N84" s="4" t="n">
         <v>1.7</v>
       </c>
-      <c r="O84" t="n">
+      <c r="O84" s="4" t="n">
         <v>170.1</v>
       </c>
       <c r="P84" t="n">
@@ -6301,19 +6315,19 @@
         <v>0</v>
       </c>
       <c r="S84" t="s">
-        <v>280</v>
-      </c>
-      <c r="T84" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T84" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U84" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V84"/>
       <c r="W84" t="s">
-        <v>279</v>
-      </c>
-      <c r="X84" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X84" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6325,22 +6339,22 @@
         <v>5</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D85" t="n">
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F85" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G85" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H85" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I85" t="n">
         <v>0.000001</v>
@@ -6364,19 +6378,19 @@
         <v>0</v>
       </c>
       <c r="S85" t="s">
-        <v>280</v>
-      </c>
-      <c r="T85" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T85" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U85" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V85"/>
       <c r="W85" t="s">
-        <v>279</v>
-      </c>
-      <c r="X85" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X85" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6388,25 +6402,25 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D86" t="n">
         <v>7</v>
       </c>
       <c r="E86" t="s">
+        <v>257</v>
+      </c>
+      <c r="F86" t="s">
+        <v>254</v>
+      </c>
+      <c r="G86" t="s">
         <v>260</v>
       </c>
-      <c r="F86" t="s">
-        <v>257</v>
-      </c>
-      <c r="G86" t="s">
-        <v>263</v>
-      </c>
       <c r="H86" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I86" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J86" t="n">
         <v>70</v>
@@ -6415,7 +6429,7 @@
       <c r="L86"/>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O86" t="n">
         <v>41.2</v>
@@ -6427,19 +6441,19 @@
         <v>0</v>
       </c>
       <c r="S86" t="s">
-        <v>280</v>
-      </c>
-      <c r="T86" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T86" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U86" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V86"/>
       <c r="W86" t="s">
-        <v>279</v>
-      </c>
-      <c r="X86" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X86" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6451,25 +6465,25 @@
         <v>2</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D87" t="n">
         <v>7</v>
       </c>
       <c r="E87" t="s">
+        <v>257</v>
+      </c>
+      <c r="F87" t="s">
+        <v>227</v>
+      </c>
+      <c r="G87" t="s">
         <v>260</v>
       </c>
-      <c r="F87" t="s">
-        <v>230</v>
-      </c>
-      <c r="G87" t="s">
-        <v>263</v>
-      </c>
       <c r="H87" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I87" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="J87" t="n">
         <v>70</v>
@@ -6477,10 +6491,10 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N87" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O87" t="n">
         <v>41.1</v>
@@ -6492,19 +6506,19 @@
         <v>0</v>
       </c>
       <c r="S87" t="s">
-        <v>280</v>
-      </c>
-      <c r="T87" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T87" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U87" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V87"/>
       <c r="W87" t="s">
-        <v>279</v>
-      </c>
-      <c r="X87" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X87" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6516,22 +6530,22 @@
         <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D88" t="n">
         <v>7</v>
       </c>
       <c r="E88" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F88" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G88" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H88" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I88" t="n">
         <v>0.005000001</v>
@@ -6542,10 +6556,10 @@
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="N88" t="n">
-        <v>0.000001</v>
+        <v>-0.000001</v>
       </c>
       <c r="O88" t="n">
         <v>60.699</v>
@@ -6557,19 +6571,19 @@
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>280</v>
-      </c>
-      <c r="T88" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T88" s="5" t="n">
         <v>45314</v>
       </c>
       <c r="U88" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="V88"/>
       <c r="W88" t="s">
-        <v>279</v>
-      </c>
-      <c r="X88" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X88" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6581,22 +6595,22 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D89" t="n">
         <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F89" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G89" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H89" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I89" t="n">
         <v>-5</v>
@@ -6620,19 +6634,19 @@
         <v>0</v>
       </c>
       <c r="S89" t="s">
-        <v>280</v>
-      </c>
-      <c r="T89" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T89" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U89" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V89"/>
       <c r="W89" t="s">
-        <v>279</v>
-      </c>
-      <c r="X89" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X89" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6644,22 +6658,22 @@
         <v>3</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D90" t="n">
         <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F90" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G90" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H90" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="I90" t="n">
         <v>3</v>
@@ -6683,19 +6697,19 @@
         <v>0</v>
       </c>
       <c r="S90" t="s">
-        <v>280</v>
-      </c>
-      <c r="T90" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T90" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U90" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V90"/>
       <c r="W90" t="s">
-        <v>279</v>
-      </c>
-      <c r="X90" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X90" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6707,22 +6721,22 @@
         <v>4</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D91" t="n">
         <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G91" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H91" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -6746,19 +6760,19 @@
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>282</v>
-      </c>
-      <c r="T91" s="4" t="n">
+        <v>280</v>
+      </c>
+      <c r="T91" s="5" t="n">
         <v>45257</v>
       </c>
       <c r="U91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="V91"/>
       <c r="W91" t="s">
-        <v>279</v>
-      </c>
-      <c r="X91" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X91" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6770,22 +6784,22 @@
         <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D92" t="n">
         <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F92" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H92" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I92" t="n">
         <v>2</v>
@@ -6809,19 +6823,19 @@
         <v>0</v>
       </c>
       <c r="S92" t="s">
-        <v>280</v>
-      </c>
-      <c r="T92" s="4" t="n">
+        <v>277</v>
+      </c>
+      <c r="T92" s="5" t="n">
         <v>45299</v>
       </c>
       <c r="U92" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="V92"/>
       <c r="W92" t="s">
-        <v>279</v>
-      </c>
-      <c r="X92" s="4" t="n">
+        <v>287</v>
+      </c>
+      <c r="X92" s="5" t="n">
         <v>45314</v>
       </c>
     </row>
@@ -6832,6 +6846,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>